--- a/test/Applicant_Risk_Rating.xlsx
+++ b/test/Applicant_Risk_Rating.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EV\ev-feel\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ev-found\ev-feel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,9 +62,6 @@
     <t>Medical History</t>
   </si>
   <si>
-    <t>High,Medium,Low</t>
-  </si>
-  <si>
     <t>"good"</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>"Low"</t>
+  </si>
+  <si>
+    <t>"High","Medium","Low"</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="B4:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -576,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -590,10 +590,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -604,10 +604,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -618,10 +618,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
